--- a/utro_wpf/DB_Data/nomenklatura.xlsx
+++ b/utro_wpf/DB_Data/nomenklatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fedor\Source\Repos\utro_wpf\utro_wpf\DB_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B7ECCF-D599-4815-B709-62BFC56E3EBC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC0D941-D9E3-453A-A9A8-2BBA5695AF13}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16755" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
